--- a/lab2/sheet.xlsx
+++ b/lab2/sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Система_1" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,15 +22,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t xml:space="preserve">z</t>
   </si>
   <si>
+    <t xml:space="preserve">Нагрузка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">П1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">П2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загрузка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сред</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длина очереди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Число заявок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Время ожидания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">λ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пришла заявка</t>
+  </si>
+  <si>
     <t xml:space="preserve">Система_1</t>
   </si>
   <si>
-    <t xml:space="preserve">λ</t>
+    <t xml:space="preserve">b</t>
   </si>
   <si>
     <t xml:space="preserve">0 / 0 / 0 / 0</t>
@@ -39,13 +72,7 @@
     <t xml:space="preserve">p1</t>
   </si>
   <si>
-    <t xml:space="preserve">Нагрузка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
+    <t xml:space="preserve">Время пребывания</t>
   </si>
   <si>
     <t xml:space="preserve">1 / 0 / 0 / 0</t>
@@ -54,21 +81,12 @@
     <t xml:space="preserve">p2</t>
   </si>
   <si>
-    <t xml:space="preserve">П2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 / 0 / 1 / 0</t>
   </si>
   <si>
     <t xml:space="preserve">p3</t>
   </si>
   <si>
-    <t xml:space="preserve">Сумм</t>
-  </si>
-  <si>
     <t xml:space="preserve">Накопитель_1</t>
   </si>
   <si>
@@ -78,7 +96,7 @@
     <t xml:space="preserve">p4</t>
   </si>
   <si>
-    <t xml:space="preserve">Загрузка</t>
+    <t xml:space="preserve">Вероятность потери</t>
   </si>
   <si>
     <t xml:space="preserve">Накопитель_2</t>
@@ -93,13 +111,19 @@
     <t xml:space="preserve">mu</t>
   </si>
   <si>
+    <t xml:space="preserve">заявка обработана</t>
+  </si>
+  <si>
     <t xml:space="preserve">0 / 1 / 0 / 1</t>
   </si>
   <si>
     <t xml:space="preserve">p6</t>
   </si>
   <si>
-    <t xml:space="preserve">Сред</t>
+    <t xml:space="preserve">λ*p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пришла в первый прибор</t>
   </si>
   <si>
     <t xml:space="preserve">1 / 1 / 0 / 0</t>
@@ -108,7 +132,13 @@
     <t xml:space="preserve">p7</t>
   </si>
   <si>
-    <t xml:space="preserve">Длина очереди</t>
+    <t xml:space="preserve">Производительность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">λ*p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пришла во второй прибор</t>
   </si>
   <si>
     <t xml:space="preserve">1 / 1 / 1 / 0</t>
@@ -129,9 +159,6 @@
     <t xml:space="preserve">p10</t>
   </si>
   <si>
-    <t xml:space="preserve">Число заявок</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 / 1 / 1 / 1</t>
   </si>
   <si>
@@ -142,18 +169,6 @@
   </si>
   <si>
     <t xml:space="preserve">p12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время ожидания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время пребывания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вероятность потери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Производительность</t>
   </si>
   <si>
     <t xml:space="preserve">Система 1</t>
@@ -210,12 +225,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="##0.0000"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="##0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -248,13 +263,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -269,9 +277,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF202122"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="18"/>
@@ -304,25 +319,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -332,8 +335,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFBBC04"/>
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -344,8 +347,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -508,7 +511,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,94 +524,90 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -621,19 +620,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,11 +636,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -653,35 +648,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -689,19 +672,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -750,17 +729,17 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4285F4"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFBBC04"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFEA4335"/>
       <rgbColor rgb="FF757575"/>
       <rgbColor rgb="FF8B8B8B"/>
@@ -922,25 +901,25 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9102</c:v>
+                  <c:v>0.7568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3085</c:v>
+                  <c:v>1.7641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1288</c:v>
+                  <c:v>3.2777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2979</c:v>
+                  <c:v>2.5202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.2979</c:v>
+                  <c:v>14.3488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5394</c:v>
+                  <c:v>0.3973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3224</c:v>
+                  <c:v>0.4219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,11 +1049,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="79414886"/>
-        <c:axId val="82560658"/>
+        <c:axId val="51300258"/>
+        <c:axId val="71759644"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79414886"/>
+        <c:axId val="51300258"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82560658"/>
+        <c:crossAx val="71759644"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1115,7 +1094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82560658"/>
+        <c:axId val="71759644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22"/>
@@ -1159,7 +1138,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79414886"/>
+        <c:crossAx val="51300258"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -1359,25 +1338,25 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9102</c:v>
+                  <c:v>0.7568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3085</c:v>
+                  <c:v>1.7641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1288</c:v>
+                  <c:v>3.2777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2979</c:v>
+                  <c:v>2.5202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.2979</c:v>
+                  <c:v>14.3488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5394</c:v>
+                  <c:v>0.3973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3224</c:v>
+                  <c:v>0.4219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,11 +1682,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="84647357"/>
-        <c:axId val="79069397"/>
+        <c:axId val="76731481"/>
+        <c:axId val="34004165"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84647357"/>
+        <c:axId val="76731481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1719,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79069397"/>
+        <c:crossAx val="34004165"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1748,7 +1727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79069397"/>
+        <c:axId val="34004165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,7 +1770,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84647357"/>
+        <c:crossAx val="76731481"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1855,9 +1834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>356040</xdr:colOff>
+      <xdr:colOff>355680</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1866,7 +1845,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7499880" y="190440"/>
-        <a:ext cx="12819960" cy="6152400"/>
+        <a:ext cx="12819600" cy="6152040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1885,9 +1864,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>380160</xdr:colOff>
+      <xdr:colOff>379800</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1896,7 +1875,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7524000" y="6324480"/>
-        <a:ext cx="12819960" cy="6199920"/>
+        <a:ext cx="12819600" cy="6199560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2088,13 +2067,27 @@
   </sheetPr>
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="12" style="1" width="15.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="6.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,11 +2095,6 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
       <c r="L1" s="1" t="n">
         <v>1</v>
       </c>
@@ -2145,745 +2133,790 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="10" t="n">
-        <f aca="false">B2*B3*B4</f>
+      <c r="J2" s="5" t="n">
+        <f aca="false">M15*M16*M17</f>
         <v>2.8</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="11" t="n">
+      <c r="L2" s="6" t="n">
         <v>-0.7</v>
       </c>
-      <c r="M2" s="12" t="n">
-        <f aca="false">0.7*0.8</f>
+      <c r="M2" s="7" t="n">
+        <f aca="false">M22</f>
         <v>0.56</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="12" t="n">
-        <f aca="false">0.7*0.2</f>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7" t="n">
+        <f aca="false">M23</f>
         <v>0.14</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <f aca="false">B2*B3*(1-B4)</f>
+      <c r="H3" s="3"/>
+      <c r="I3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <f aca="false">M15*M16*(1-M17)</f>
         <v>0.7</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="12" t="n">
-        <f aca="false">B7*(1-B2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="M3" s="11" t="n">
+      <c r="L3" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="6" t="n">
         <f aca="false">-SUM(L3,N3,R3)</f>
-        <v>-0.62</v>
-      </c>
-      <c r="N3" s="12" t="n">
-        <f aca="false">0.7*0.8*(1-B7)</f>
-        <v>0.448</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="12" t="n">
-        <f aca="false">B2*(1-B4)*(1-B7)</f>
-        <v>0.112</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
+        <v>-0.9</v>
+      </c>
+      <c r="N3" s="7" t="n">
+        <f aca="false">M22</f>
+        <v>0.56</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="7" t="n">
+        <f aca="false">M23</f>
+        <v>0.14</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>0.0213</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="17" t="n">
-        <f aca="false">B2*B3</f>
+      <c r="H4" s="3"/>
+      <c r="I4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <f aca="false">M15*M16</f>
         <v>3.5</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="12" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="N4" s="11" t="n">
+      <c r="L4" s="13"/>
+      <c r="M4" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="6" t="n">
         <f aca="false">-SUM(M4,O4,S4)</f>
-        <v>-0.62</v>
-      </c>
-      <c r="O4" s="12" t="n">
-        <f aca="false">B2*B4*(1-B7)</f>
-        <v>0.448</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="12" t="n">
-        <f aca="false">B2*(1-B4)*(1-B7)</f>
-        <v>0.112</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+        <v>-0.9</v>
+      </c>
+      <c r="O4" s="7" t="n">
+        <f aca="false">M22</f>
+        <v>0.56</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="7" t="n">
+        <f aca="false">M23</f>
+        <v>0.14</v>
+      </c>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="18" t="n">
-        <f aca="false">SUM(F3:F5)+SUM(F8:F13)</f>
-        <v>0.9971</v>
+      <c r="J5" s="14" t="n">
+        <f aca="false">1-SUM(R16)-SUM(R20:R21)</f>
+        <v>0.970231</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="12" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="O5" s="19" t="n">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="15" t="n">
         <f aca="false">-SUM(N5,T5)</f>
-        <v>-0.172</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="12" t="n">
-        <f aca="false">B2*(1-B4)*(1-B7)</f>
-        <v>0.112</v>
-      </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+        <v>-0.34</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="7" t="n">
+        <f aca="false">M23</f>
+        <v>0.14</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="20" t="n">
-        <f aca="false">SUM(F6:F13)</f>
-        <v>0.8232</v>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="16" t="n">
+        <f aca="false">1-SUM(R16:R19)</f>
+        <v>0.543379</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L6" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="19" t="n">
+      <c r="L6" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="15" t="n">
         <f aca="false">-SUM(L6,Q6,R6)</f>
-        <v>-0.62</v>
-      </c>
-      <c r="Q6" s="12" t="n">
-        <f aca="false">B2*(1-B4)*(1-B7)</f>
-        <v>0.112</v>
-      </c>
-      <c r="R6" s="12" t="n">
-        <f aca="false">B2*B4*(1-B7)</f>
-        <v>0.448</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+        <v>-0.9</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <f aca="false">M23</f>
+        <v>0.14</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <f aca="false">M22</f>
+        <v>0.56</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <f aca="false">1/B3</f>
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="17" t="n">
+      <c r="H7" s="3"/>
+      <c r="I7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12" t="n">
         <f aca="false">(J5+J6)/2</f>
-        <v>0.91015</v>
+        <v>0.756805</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="Q7" s="19" t="n">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="15" t="n">
         <f aca="false">-SUM(P7,U7)</f>
-        <v>-0.508</v>
-      </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="12" t="n">
-        <f aca="false">B2*B4*(1-B7)</f>
-        <v>0.448</v>
-      </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
+        <v>-0.76</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="7" t="n">
+        <f aca="false">M22</f>
+        <v>0.56</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="18" t="n">
-        <f aca="false">(F4+F9+F12)+2*(F5+F10+F13)</f>
-        <v>1.8153</v>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14" t="n">
+        <f aca="false">(R18+R23+R26)+2*(R19+R24+R27)</f>
+        <v>1.540366</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="19" t="n">
+      <c r="L8" s="13"/>
+      <c r="M8" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="15" t="n">
         <f aca="false">-SUM(M8,P8,S8,U8)</f>
-        <v>-0.568</v>
-      </c>
-      <c r="S8" s="12" t="n">
-        <f aca="false">B2*B4*(1-B7)*(1-B7)</f>
-        <v>0.3584</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="12" t="n">
-        <f aca="false">B2*(1-B4)*(1-B7)*(1-B7)</f>
-        <v>0.0896</v>
-      </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+        <v>-1.1</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <f aca="false">M22</f>
+        <v>0.56</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="7" t="n">
+        <f aca="false">M23</f>
+        <v>0.14</v>
+      </c>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>0.0453</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="20" t="n">
-        <f aca="false">F7+SUM(F11:F13)</f>
-        <v>0.4932</v>
+      <c r="H9" s="3"/>
+      <c r="I9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <f aca="false">R21+SUM(R25:R27)</f>
+        <v>0.223744</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="S9" s="19" t="n">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="S9" s="15" t="n">
         <f aca="false">-SUM(N9,R9,T9,V9)</f>
-        <v>-0.568</v>
-      </c>
-      <c r="T9" s="12" t="n">
-        <f aca="false">S8</f>
-        <v>0.3584</v>
-      </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="12" t="n">
-        <f aca="false">U8</f>
-        <v>0.0896</v>
-      </c>
-      <c r="W9" s="6"/>
+        <v>-1.1</v>
+      </c>
+      <c r="T9" s="7" t="n">
+        <f aca="false">M22</f>
+        <v>0.56</v>
+      </c>
+      <c r="U9" s="13"/>
+      <c r="V9" s="7" t="n">
+        <f aca="false">M23</f>
+        <v>0.14</v>
+      </c>
+      <c r="W9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>0.2765</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="22" t="n">
+      <c r="H10" s="3"/>
+      <c r="I10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="17" t="n">
         <f aca="false">J8+J9</f>
-        <v>2.3085</v>
+        <v>1.76411</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="19" t="n">
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="T10" s="15" t="n">
         <f aca="false">-SUM(O10,S10,W10)</f>
-        <v>-0.2096</v>
-      </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="12" t="n">
-        <f aca="false">V9</f>
-        <v>0.0896</v>
+        <v>-0.54</v>
+      </c>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="7" t="n">
+        <f aca="false">M23</f>
+        <v>0.14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="18" t="n">
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14" t="n">
         <f aca="false">J8+J5</f>
-        <v>2.8124</v>
+        <v>2.510597</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="R11" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="19" t="n">
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="15" t="n">
         <f aca="false">-SUM(Q11,R11,V11)</f>
-        <v>-0.4784</v>
-      </c>
-      <c r="V11" s="12" t="n">
-        <f aca="false">T9</f>
-        <v>0.3584</v>
-      </c>
-      <c r="W11" s="6"/>
+        <v>-0.96</v>
+      </c>
+      <c r="V11" s="7" t="n">
+        <f aca="false">M22</f>
+        <v>0.56</v>
+      </c>
+      <c r="W11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>0.0687</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="20" t="n">
+      <c r="H12" s="3"/>
+      <c r="I12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="16" t="n">
         <f aca="false">J9+J6</f>
-        <v>1.3164</v>
+        <v>0.767123</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="V12" s="19" t="n">
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="V12" s="15" t="n">
         <f aca="false">-SUM(S12,U12,W12)</f>
-        <v>-0.4784</v>
-      </c>
-      <c r="W12" s="12" t="n">
-        <f aca="false">V11</f>
-        <v>0.3584</v>
+        <v>-0.96</v>
+      </c>
+      <c r="W12" s="7" t="n">
+        <f aca="false">M22</f>
+        <v>0.56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>0.4115</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="22" t="n">
+      <c r="H13" s="3"/>
+      <c r="I13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="17" t="n">
         <f aca="false">J11+J12</f>
-        <v>4.1288</v>
+        <v>3.27772</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="21" t="n">
-        <f aca="false">L3</f>
-        <v>0.06</v>
-      </c>
-      <c r="W13" s="19" t="n">
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="7" t="n">
+        <f aca="false">M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="W13" s="15" t="n">
         <f aca="false">-SUM(T13,V13)</f>
-        <v>-0.12</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F14" s="23" t="n">
-        <f aca="false">SUM(F2:F13)</f>
-        <v>0.9999</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <f aca="false">J8/M22</f>
+        <v>2.75065357142857</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="3"/>
+      <c r="I15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <f aca="false">J9/M23</f>
+        <v>1.59817142857143</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="3"/>
+      <c r="I16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="n">
+        <f aca="false">J10/M15</f>
+        <v>2.52015714285714</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" s="0"/>
+      <c r="P16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="21" t="n">
+        <v>0.013593</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <f aca="false">J14+M16</f>
+        <v>7.75065357142857</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N17" s="0"/>
+      <c r="P17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="21" t="n">
+        <v>0.038061</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="3"/>
+      <c r="I18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <f aca="false">J15+M16</f>
+        <v>6.59817142857143</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="19" t="n">
+        <f aca="false">0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="N18" s="0"/>
+      <c r="P18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="21" t="n">
+        <v>0.10657</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="3"/>
+      <c r="I19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12" t="n">
+        <f aca="false">J18+J17</f>
+        <v>14.348825</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0"/>
+      <c r="P19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="21" t="n">
+        <v>0.298397</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="14" t="n">
+        <f aca="false">(R19+R24+R27)*M22</f>
+        <v>0.36595384</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0"/>
+      <c r="P20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="21" t="n">
+        <v>0.009515</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="3"/>
+      <c r="I21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="16" t="n">
+        <f aca="false">(R21+SUM(R25:R27))*M23</f>
+        <v>0.03132416</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">1/M16</f>
+        <v>0.2</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="21" t="n">
+        <v>0.006661</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="3"/>
+      <c r="I22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <f aca="false">J20+J21</f>
+        <v>0.397278</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">M15*M17</f>
+        <v>0.56</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="21" t="n">
+        <v>0.026643</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <f aca="false">M22*(1-J20)</f>
+        <v>0.3550658496</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">M15*(1-M17)</f>
+        <v>0.14</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="10" t="n">
-        <f aca="false">J8/B2</f>
-        <v>2.59328571428571</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="8"/>
-      <c r="I15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="15" t="n">
-        <f aca="false">J9/B2</f>
-        <v>0.704571428571429</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="8"/>
-      <c r="I16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="17" t="n">
-        <f aca="false">J10/B2</f>
-        <v>3.29785714285714</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H17" s="8" t="s">
+      <c r="R23" s="21" t="n">
+        <v>0.074599</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="3"/>
+      <c r="I24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <f aca="false">M23*(1-J21)</f>
+        <v>0.1356146176</v>
+      </c>
+      <c r="P24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="10" t="n">
-        <f aca="false">J14+B3</f>
-        <v>7.59328571428572</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="8"/>
-      <c r="I18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="15" t="n">
-        <f aca="false">J15+B3</f>
-        <v>5.70457142857143</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="8"/>
-      <c r="I19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="17" t="n">
-        <f aca="false">J18+J17</f>
-        <v>13.2978571428571</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H20" s="8" t="s">
+      <c r="Q24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="18" t="n">
-        <f aca="false">(F5+F10+F13)*B2*B4</f>
-        <v>0.4704</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="8"/>
-      <c r="I21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="20" t="n">
-        <f aca="false">(F7+SUM(F11:F13))*B2*(1-B4)</f>
-        <v>0.069048</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="8"/>
-      <c r="I22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="17" t="n">
-        <f aca="false">J20+J21</f>
-        <v>0.539448</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H23" s="8" t="s">
+      <c r="R24" s="21" t="n">
+        <v>0.208878</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="3"/>
+      <c r="I25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="12" t="n">
+        <f aca="false">M15*(1-J22)</f>
+        <v>0.4219054</v>
+      </c>
+      <c r="P25" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="10" t="n">
-        <f aca="false">B2*B4*(1-J20)</f>
-        <v>0.296576</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="8"/>
-      <c r="I24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="15" t="n">
-        <f aca="false">B2*(1-B4)*(1-J21)</f>
-        <v>0.13033328</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="8"/>
-      <c r="I25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="17" t="n">
-        <f aca="false">B2*(1-J22)</f>
-        <v>0.3223864</v>
+      <c r="Q25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" s="21" t="n">
+        <v>0.01865</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="24"/>
+      <c r="H26" s="22"/>
+      <c r="P26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R26" s="21" t="n">
+        <v>0.052219</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H27" s="24"/>
+      <c r="H27" s="22"/>
+      <c r="P27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" s="21" t="n">
+        <v>0.146214</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H28" s="24"/>
+      <c r="H28" s="22"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="23" t="n">
+        <f aca="false">SUM(R16:R27)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H14:H16"/>
+    <mergeCell ref="P15:R15"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="H23:H25"/>
@@ -2906,8 +2939,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2917,165 +2950,165 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="28" t="n">
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="n">
         <f aca="false">Система_1!J4</f>
         <v>3.5</v>
       </c>
-      <c r="C2" s="29" t="n">
+      <c r="C2" s="28" t="n">
         <f aca="false">Система_1!J2</f>
         <v>2.8</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31" t="n">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="n">
         <f aca="false">ABS($B2-$C2)/MAX($B2:$C2)</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="33" t="n">
+      <c r="A3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="31" t="n">
         <f aca="false">ROUND(Система_1!J7, 4)</f>
-        <v>0.9102</v>
-      </c>
-      <c r="C3" s="34" t="n">
+        <v>0.7568</v>
+      </c>
+      <c r="C3" s="32" t="n">
         <f aca="false">Система_2!J5</f>
         <v>1.172745</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="31" t="n">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="29" t="n">
         <f aca="false">ABS($B3-$C3)/MAX($B3:$C3)</f>
-        <v>0.223872197280739</v>
+        <v>0.354676421557969</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="33" t="n">
+      <c r="A4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="31" t="n">
         <f aca="false">ROUND(Система_1!J10, 4)</f>
-        <v>2.3085</v>
-      </c>
-      <c r="C4" s="34" t="n">
+        <v>1.7641</v>
+      </c>
+      <c r="C4" s="32" t="n">
         <f aca="false">Система_2!J8</f>
         <v>1.9469</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="31" t="n">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29" t="n">
         <f aca="false">ABS($B4-$C4)/MAX($B4:$C4)</f>
-        <v>0.156638509854884</v>
+        <v>0.0938928553084391</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="33" t="n">
+      <c r="A5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="31" t="n">
         <f aca="false">ROUND(Система_1!J13, 4)</f>
-        <v>4.1288</v>
-      </c>
-      <c r="C5" s="34" t="n">
+        <v>3.2777</v>
+      </c>
+      <c r="C5" s="32" t="n">
         <f aca="false">Система_2!J11</f>
         <v>3.119645</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="31" t="n">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="29" t="n">
         <f aca="false">ABS($B5-$C5)/MAX($B5:$C5)</f>
-        <v>0.244418475101724</v>
+        <v>0.0482213137260884</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="31" t="n">
         <f aca="false">ROUND(Система_1!J16, 4)</f>
-        <v>3.2979</v>
-      </c>
-      <c r="C6" s="34" t="n">
+        <v>2.5202</v>
+      </c>
+      <c r="C6" s="32" t="n">
         <f aca="false">Система_2!J14</f>
         <v>2.78128571428571</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="31" t="n">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="29" t="n">
         <f aca="false">ABS($B6-$C6)/MAX($B6:$C6)</f>
-        <v>0.156649469575877</v>
+        <v>0.0938723098258757</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="31" t="n">
         <f aca="false">ROUND(Система_1!J19, 4)</f>
-        <v>13.2979</v>
-      </c>
-      <c r="C7" s="34" t="n">
+        <v>14.3488</v>
+      </c>
+      <c r="C7" s="32" t="n">
         <f aca="false">Система_2!J17</f>
         <v>7.78128571428571</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="31" t="n">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="29" t="n">
         <f aca="false">ABS($B7-$C7)/MAX($B7:$C7)</f>
-        <v>0.414848531400769</v>
+        <v>0.457704775710463</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="33" t="n">
+      <c r="A8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="31" t="n">
         <f aca="false">ROUND(Система_1!J22, 4)</f>
-        <v>0.5394</v>
-      </c>
-      <c r="C8" s="34" t="n">
+        <v>0.3973</v>
+      </c>
+      <c r="C8" s="32" t="n">
         <f aca="false">Система_2!J20</f>
         <v>0.66493</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="31" t="n">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="29" t="n">
         <f aca="false">ABS($B8-$C8)/MAX($B8:$C8)</f>
-        <v>0.188786789586874</v>
+        <v>0.402493495555923</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="36" t="n">
+      <c r="A9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="34" t="n">
         <f aca="false">ROUND(Система_1!J25, 4)</f>
-        <v>0.3224</v>
-      </c>
-      <c r="C9" s="37" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="C9" s="35" t="n">
         <f aca="false">Система_2!J23</f>
         <v>0.234549</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="31" t="n">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="29" t="n">
         <f aca="false">ABS($B9-$C9)/MAX($B9:$C9)</f>
-        <v>0.272490694789082</v>
+        <v>0.444064944299597</v>
       </c>
     </row>
   </sheetData>
@@ -3181,20 +3214,20 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="19" style="1" width="15.3"/>
   </cols>
@@ -3205,599 +3238,594 @@
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="n">
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="M1" s="39" t="n">
+      <c r="M1" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="N1" s="39" t="n">
+      <c r="N1" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="O1" s="39" t="n">
+      <c r="O1" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="P1" s="39" t="n">
+      <c r="P1" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="Q1" s="39" t="n">
+      <c r="Q1" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="R1" s="39" t="n">
+      <c r="R1" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="41"/>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="37" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="10" t="n">
+      <c r="J2" s="5" t="n">
         <f aca="false">B2*B3</f>
         <v>3.5</v>
       </c>
-      <c r="K2" s="39" t="n">
+      <c r="K2" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="42" t="n">
+      <c r="L2" s="38" t="n">
         <v>-0.7</v>
       </c>
-      <c r="M2" s="43" t="n">
+      <c r="M2" s="39" t="n">
         <f aca="false">B4*B2</f>
         <v>0.28</v>
       </c>
-      <c r="N2" s="44" t="n">
+      <c r="N2" s="40" t="n">
         <f aca="false">(1-B4)*B2</f>
         <v>0.42</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="41"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="D3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="37" t="n">
         <v>0.0022</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="39" t="n">
+      <c r="H3" s="3"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="43" t="n">
+      <c r="L3" s="39" t="n">
         <f aca="false">O7</f>
         <v>0.03048399691022</v>
       </c>
-      <c r="M3" s="42" t="n">
+      <c r="M3" s="38" t="n">
         <v>-0.6594</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44" t="n">
+      <c r="N3" s="39"/>
+      <c r="O3" s="40" t="n">
         <f aca="false">B2*(1-B9)</f>
         <v>0.628870673876154</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="41"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="19" t="n">
         <v>0.4</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">2/(1+1.5*1.5)</f>
         <v>0.615384615384615</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="n">
+      <c r="D4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="37" t="n">
         <v>0.0006</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="39" t="n">
+      <c r="H4" s="3"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="44" t="n">
+      <c r="L4" s="40" t="n">
         <f aca="false">P8</f>
         <v>0.169251143077842</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="42" t="n">
+      <c r="M4" s="39"/>
+      <c r="N4" s="38" t="n">
         <v>-0.4744</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44" t="n">
+      <c r="O4" s="39"/>
+      <c r="P4" s="40" t="n">
         <f aca="false">B2*(1-B10)</f>
         <v>0.305080666151703</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="41"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="A5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="D5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="37" t="n">
         <v>0.046</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="18" t="n">
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="14" t="n">
         <f aca="false">(1-J20)*J2</f>
         <v>1.172745</v>
       </c>
-      <c r="K5" s="39" t="n">
+      <c r="K5" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44" t="n">
+      <c r="L5" s="40"/>
+      <c r="M5" s="40" t="n">
         <f aca="false">O7</f>
         <v>0.03048399691022</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="42" t="n">
+      <c r="N5" s="39"/>
+      <c r="O5" s="38" t="n">
         <v>-0.6594</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44" t="n">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40" t="n">
         <f aca="false">O3</f>
         <v>0.628870673876154</v>
       </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="41"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="n">
+      <c r="D6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="37" t="n">
         <v>0.0011</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="39" t="n">
+      <c r="H6" s="3"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44" t="n">
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40" t="n">
         <f aca="false">P8</f>
         <v>0.169251143077842</v>
       </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="42" t="n">
+      <c r="O6" s="40"/>
+      <c r="P6" s="38" t="n">
         <v>-0.4744</v>
       </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43" t="n">
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39" t="n">
         <f aca="false">P4</f>
         <v>0.305080666151703</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="4" t="n">
+      <c r="A7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="19" t="n">
         <f aca="false">(1+SQRT((1-B4)/(2*B4)*(B6^2-1)))*B3</f>
         <v>9.84122918275927</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="D7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="37" t="n">
         <v>0.9479</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="39" t="n">
+      <c r="H7" s="3"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44" t="n">
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40" t="n">
         <f aca="false">B9*(1-B2)</f>
         <v>0.03048399691022</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="42" t="n">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="38" t="n">
         <v>-0.0305</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="41"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <f aca="false">(1-SQRT((B4)/(2*(1-B4))*(B6*B6-1)))*B3</f>
         <v>1.77251387816049</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7" t="n">
+      <c r="D8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="37" t="n">
         <v>0.002</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="18" t="n">
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14" t="n">
         <f aca="false">SUM(F5:F6)+2*SUM(F7:F8)</f>
         <v>1.9469</v>
       </c>
-      <c r="K8" s="39" t="n">
+      <c r="K8" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="43" t="n">
+      <c r="L8" s="40"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="39" t="n">
         <f aca="false">B10*(1-B2)</f>
         <v>0.169251143077842</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="42" t="n">
+      <c r="Q8" s="40"/>
+      <c r="R8" s="38" t="n">
         <v>-0.1693</v>
       </c>
-      <c r="S8" s="48"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="41"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <f aca="false">1/B7</f>
         <v>0.101613323034066</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="41"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="37"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <f aca="false">1/B8</f>
         <v>0.564170476926138</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="41"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="37"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="H11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="18" t="n">
+      <c r="D11" s="20"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="37"/>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14" t="n">
         <f aca="false">J8+J5</f>
         <v>3.119645</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="41"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="41"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="37"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="41"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="37"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F14" s="23" t="n">
         <f aca="false">SUM(F2:F13)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="10" t="n">
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <f aca="false">J8/B2</f>
         <v>2.78128571428571</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="8"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="8"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="10" t="n">
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <f aca="false">J14+B4*B7+(1-B4)*B8</f>
         <v>7.78128571428571</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="8"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="18" t="n">
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="14" t="n">
         <f aca="false">SUM(F7,F8)*B2</f>
         <v>0.66493</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="8"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="8"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="10" t="n">
+      <c r="H23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <f aca="false">B2*(1-J20)</f>
         <v>0.234549</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="8"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="8"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="24"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H27" s="24"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H28" s="24"/>
+      <c r="H28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/lab2/sheet.xlsx
+++ b/lab2/sheet.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\simulation-labs\lab2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD48665-6866-491A-9533-A37616AEDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Система_1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Сравнение" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Система_2" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Система_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Сравнение" sheetId="2" r:id="rId2"/>
+    <sheet name="Система_2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -22,264 +38,259 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
-  <si>
-    <t xml:space="preserve">z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нагрузка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сред</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Длина очереди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Число заявок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время ожидания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">λ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пришла заявка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Система_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 / 0 / 0 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время пребывания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 0 / 0 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 0 / 1 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Накопитель_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 0 / 2 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вероятность потери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Накопитель_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 / 1 / 0 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">заявка обработана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 / 1 / 0 / 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">λ*p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пришла в первый прибор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 1 / 0 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Производительность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">λ*p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пришла во второй прибор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 1 / 1 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 1 / 2 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 1 / 0 / 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 1 / 1 / 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 1 / 2 / 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Система 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Система 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(1) / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2) / 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(1) / 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2) / 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(1) / 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (2) / 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mu1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mu2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Нагрузка</t>
+  </si>
+  <si>
+    <t>П1</t>
+  </si>
+  <si>
+    <t>П2</t>
+  </si>
+  <si>
+    <t>Сумм</t>
+  </si>
+  <si>
+    <t>Загрузка</t>
+  </si>
+  <si>
+    <t>Сред</t>
+  </si>
+  <si>
+    <t>Длина очереди</t>
+  </si>
+  <si>
+    <t>Число заявок</t>
+  </si>
+  <si>
+    <t>Время ожидания</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>пришла заявка</t>
+  </si>
+  <si>
+    <t>Система_1</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>0 / 0 / 0 / 0</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>Время пребывания</t>
+  </si>
+  <si>
+    <t>1 / 0 / 0 / 0</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>1 / 0 / 1 / 0</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>Накопитель_1</t>
+  </si>
+  <si>
+    <t>1 / 0 / 2 / 0</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>Вероятность потери</t>
+  </si>
+  <si>
+    <t>Накопитель_2</t>
+  </si>
+  <si>
+    <t>0 / 1 / 0 / 0</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>заявка обработана</t>
+  </si>
+  <si>
+    <t>0 / 1 / 0 / 1</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>λ*p1</t>
+  </si>
+  <si>
+    <t>пришла в первый прибор</t>
+  </si>
+  <si>
+    <t>1 / 1 / 0 / 0</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>Производительность</t>
+  </si>
+  <si>
+    <t>λ*p2</t>
+  </si>
+  <si>
+    <t>пришла во второй прибор</t>
+  </si>
+  <si>
+    <t>1 / 1 / 1 / 0</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>1 / 1 / 2 / 0</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>1 / 1 / 0 / 1</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>1 / 1 / 1 / 1</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>1 / 1 / 2 / 1</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>Система 1</t>
+  </si>
+  <si>
+    <t>Система 2</t>
+  </si>
+  <si>
+    <t>0 / 0</t>
+  </si>
+  <si>
+    <t>p0</t>
+  </si>
+  <si>
+    <t>1(1) / 0</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>1 (2) / 0</t>
+  </si>
+  <si>
+    <t>1(1) / 1</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>1 (2) / 1</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>1(1) / 2</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>1 (2) / 2</t>
+  </si>
+  <si>
+    <t>mu1</t>
+  </si>
+  <si>
+    <t>mu2</t>
+  </si>
+  <si>
+    <t>заявка пришла и обработана в среднем за mu1</t>
+  </si>
+  <si>
+    <t>заявка пришла и обработана в среднем за mu2</t>
+  </si>
+  <si>
+    <t>заявка в приборе обработана (с законом I) и заявка в очереди -&gt; по закону I</t>
+  </si>
+  <si>
+    <t>заявка в приборе обработана (с законом I) и заявка в очереди -&gt; по закону II</t>
+  </si>
+  <si>
+    <t>заявка в приборе обработана (с законом II) и заявка в очереди -&gt; по закону I</t>
+  </si>
+  <si>
+    <t>заявка в приборе обработана (с законом II) и заявка в очереди -&gt; по закону II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="##0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -287,37 +298,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF757575"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1A1A1A"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -359,340 +339,330 @@
     </fill>
   </fills>
   <borders count="18">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="43">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -751,15 +721,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF202122"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -768,7 +756,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -777,7 +765,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -799,6 +787,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -819,7 +808,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4285f4"/>
+              <a:srgbClr val="4285F4"/>
             </a:solidFill>
             <a:ln w="0">
               <a:solidFill>
@@ -829,13 +818,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -843,6 +838,7 @@
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -851,8 +847,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -895,28 +892,28 @@
             <c:numRef>
               <c:f>Сравнение!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>##0.0000</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7568</c:v>
+                  <c:v>0.75680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2777</c:v>
+                  <c:v>3.2776999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.3488</c:v>
+                  <c:v>14.348800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3973</c:v>
+                  <c:v>0.39729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.4219</c:v>
@@ -924,6 +921,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7ABE-4B42-BF58-30E92E34D7CB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -941,7 +943,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ea4335"/>
+              <a:srgbClr val="EA4335"/>
             </a:solidFill>
             <a:ln w="0">
               <a:solidFill>
@@ -951,13 +953,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -965,6 +973,7 @@
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -973,8 +982,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1017,38 +1027,50 @@
             <c:numRef>
               <c:f>Сравнение!$C$2:$C$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>##0.0000</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.8</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.172745</c:v>
+                  <c:v>1.1727450000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9469</c:v>
+                  <c:v>1.9468999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.119645</c:v>
+                  <c:v>3.1196450000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.78128571428571</c:v>
+                  <c:v>2.7812857142857141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.78128571428571</c:v>
+                  <c:v>7.7812857142857146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66493</c:v>
+                  <c:v>0.66492999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.234549</c:v>
+                  <c:v>0.23454900000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7ABE-4B42-BF58-30E92E34D7CB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
         <c:axId val="51300258"/>
         <c:axId val="71759644"/>
       </c:barChart>
@@ -1066,7 +1088,7 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
+              <a:srgbClr val="8B8B8B"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1076,7 +1098,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1084,6 +1106,7 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="71759644"/>
@@ -1105,7 +1128,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b7b7b7"/>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1118,7 +1141,7 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
+              <a:srgbClr val="8B8B8B"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1128,7 +1151,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1136,13 +1159,14 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="51300258"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
-        <c:minorUnit val="0.666666666666667"/>
+        <c:minorUnit val="0.66666666666666696"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1165,38 +1189,47 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="1a1a1a"/>
+                <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1205,7 +1238,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1214,7 +1247,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1236,6 +1269,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1256,7 +1290,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4285f4"/>
+              <a:srgbClr val="4285F4"/>
             </a:solidFill>
             <a:ln w="0">
               <a:solidFill>
@@ -1266,13 +1300,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1280,6 +1320,7 @@
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1288,8 +1329,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1332,28 +1374,28 @@
             <c:numRef>
               <c:f>Сравнение!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>##0.0000</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7568</c:v>
+                  <c:v>0.75680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2777</c:v>
+                  <c:v>3.2776999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.3488</c:v>
+                  <c:v>14.348800000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3973</c:v>
+                  <c:v>0.39729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.4219</c:v>
@@ -1361,6 +1403,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E52-4622-AB27-1305FA29F0B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1370,15 +1417,12 @@
               <c:f>Сравнение!$E$1:$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ea4335"/>
+              <a:srgbClr val="EA4335"/>
             </a:solidFill>
             <a:ln w="0">
               <a:solidFill>
@@ -1388,13 +1432,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1402,6 +1452,7 @@
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1410,8 +1461,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1454,11 +1506,16 @@
             <c:numRef>
               <c:f>Сравнение!$E$2:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>##0.0000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E52-4622-AB27-1305FA29F0B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1476,7 +1533,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="fbbc04"/>
+              <a:srgbClr val="FBBC04"/>
             </a:solidFill>
             <a:ln w="0">
               <a:solidFill>
@@ -1486,13 +1543,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1500,6 +1563,7 @@
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1508,8 +1572,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1552,35 +1617,40 @@
             <c:numRef>
               <c:f>Сравнение!$C$2:$C$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>##0.0000</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.8</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.172745</c:v>
+                  <c:v>1.1727450000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9469</c:v>
+                  <c:v>1.9468999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.119645</c:v>
+                  <c:v>3.1196450000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.78128571428571</c:v>
+                  <c:v>2.7812857142857141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.78128571428571</c:v>
+                  <c:v>7.7812857142857146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66493</c:v>
+                  <c:v>0.66492999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.234549</c:v>
+                  <c:v>0.23454900000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E52-4622-AB27-1305FA29F0B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1590,15 +1660,12 @@
               <c:f>Сравнение!$D$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="34a853"/>
+              <a:srgbClr val="34A853"/>
             </a:solidFill>
             <a:ln w="0">
               <a:solidFill>
@@ -1608,13 +1675,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1622,6 +1695,7 @@
                     <a:ea typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1630,8 +1704,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1674,14 +1749,26 @@
             <c:numRef>
               <c:f>Сравнение!$D$2:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>##0.0000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5E52-4622-AB27-1305FA29F0B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
         <c:axId val="76731481"/>
         <c:axId val="34004165"/>
       </c:barChart>
@@ -1699,7 +1786,7 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
+              <a:srgbClr val="8B8B8B"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1709,7 +1796,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1717,6 +1804,7 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="34004165"/>
@@ -1737,7 +1825,7 @@
           <c:spPr>
             <a:ln w="6480">
               <a:solidFill>
-                <a:srgbClr val="b7b7b7"/>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1750,7 +1838,7 @@
         <c:spPr>
           <a:ln w="6480">
             <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
+              <a:srgbClr val="8B8B8B"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1760,7 +1848,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1768,6 +1856,7 @@
                 <a:ea typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="76731481"/>
@@ -1795,36 +1884,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="1a1a1a"/>
+                <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
               <a:ea typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1838,14 +1934,20 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7499880" y="190440"/>
-        <a:ext cx="12819600" cy="6152040"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1868,14 +1970,20 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7524000" y="6324480"/>
-        <a:ext cx="12819600" cy="6199560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1889,56 +1997,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1968,7 +2076,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1992,7 +2100,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2052,112 +2160,111 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="6.39"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="L1" s="1" t="n">
+      <c r="B1" s="3"/>
+      <c r="L1">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1">
         <v>6</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1">
         <v>11</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H2" s="3" t="s">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <f aca="false">M15*M16*M17</f>
-        <v>2.8</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="J2" s="5">
+        <f>M15*M16*M17</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="6">
         <v>-0.7</v>
       </c>
-      <c r="M2" s="7" t="n">
-        <f aca="false">M22</f>
-        <v>0.56</v>
+      <c r="M2" s="7">
+        <f>M22</f>
+        <v>0.55999999999999994</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="7" t="n">
-        <f aca="false">M23</f>
-        <v>0.14</v>
+      <c r="P2" s="7">
+        <f>M23</f>
+        <v>0.13999999999999996</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
@@ -2167,36 +2274,36 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H3" s="3"/>
+    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H3" s="2"/>
       <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="10" t="n">
-        <f aca="false">M15*M16*(1-M17)</f>
-        <v>0.7</v>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="10">
+        <f>M15*M16*(1-M17)</f>
+        <v>0.69999999999999984</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L3" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="M3" s="6" t="n">
-        <f aca="false">-SUM(L3,N3,R3)</f>
-        <v>-0.9</v>
-      </c>
-      <c r="N3" s="7" t="n">
-        <f aca="false">M22</f>
-        <v>0.56</v>
+      <c r="M3" s="6">
+        <f>-SUM(L3,N3,R3)</f>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="N3" s="7">
+        <f>M22</f>
+        <v>0.55999999999999994</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="7" t="n">
-        <f aca="false">M23</f>
-        <v>0.14</v>
+      <c r="R3" s="7">
+        <f>M23</f>
+        <v>0.13999999999999996</v>
       </c>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
@@ -2204,920 +2311,905 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="3"/>
+    <row r="4" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H4" s="2"/>
       <c r="I4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="12" t="n">
-        <f aca="false">M15*M16</f>
+      <c r="J4" s="12">
+        <f>M15*M16</f>
         <v>3.5</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="N4" s="6" t="n">
-        <f aca="false">-SUM(M4,O4,S4)</f>
-        <v>-0.9</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <f aca="false">M22</f>
-        <v>0.56</v>
+      <c r="N4" s="6">
+        <f>-SUM(M4,O4,S4)</f>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="O4" s="7">
+        <f>M22</f>
+        <v>0.55999999999999994</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="7" t="n">
-        <f aca="false">M23</f>
-        <v>0.14</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H5" s="3" t="s">
+      <c r="S4" s="7">
+        <f>M23</f>
+        <v>0.13999999999999996</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="14" t="n">
-        <f aca="false">1-SUM(R16)-SUM(R20:R21)</f>
-        <v>0.970231</v>
-      </c>
-      <c r="K5" s="1" t="n">
+      <c r="J5" s="13">
+        <f>1-SUM(R16)-SUM(R20:R21)</f>
+        <v>0.97023100000000007</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="O5" s="15" t="n">
-        <f aca="false">-SUM(N5,T5)</f>
-        <v>-0.34</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="7" t="n">
-        <f aca="false">M23</f>
-        <v>0.14</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="3"/>
+      <c r="O5" s="14">
+        <f>-SUM(N5,T5)</f>
+        <v>-0.33999999999999997</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="7">
+        <f>M23</f>
+        <v>0.13999999999999996</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H6" s="2"/>
       <c r="I6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="16" t="n">
-        <f aca="false">1-SUM(R16:R19)</f>
-        <v>0.543379</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="J6" s="15">
+        <f>1-SUM(R16:R19)</f>
+        <v>0.54337899999999995</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L6" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15" t="n">
-        <f aca="false">-SUM(L6,Q6,R6)</f>
-        <v>-0.9</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <f aca="false">M23</f>
-        <v>0.14</v>
-      </c>
-      <c r="R6" s="7" t="n">
-        <f aca="false">M22</f>
-        <v>0.56</v>
-      </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="3"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="14">
+        <f>-SUM(L6,Q6,R6)</f>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>M23</f>
+        <v>0.13999999999999996</v>
+      </c>
+      <c r="R6" s="7">
+        <f>M22</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H7" s="2"/>
       <c r="I7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="12" t="n">
-        <f aca="false">(J5+J6)/2</f>
-        <v>0.756805</v>
-      </c>
-      <c r="K7" s="1" t="n">
+      <c r="J7" s="12">
+        <f>(J5+J6)/2</f>
+        <v>0.75680499999999995</v>
+      </c>
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="Q7" s="15" t="n">
-        <f aca="false">-SUM(P7,U7)</f>
+      <c r="Q7" s="14">
+        <f>-SUM(P7,U7)</f>
         <v>-0.76</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="7" t="n">
-        <f aca="false">M22</f>
-        <v>0.56</v>
-      </c>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H8" s="3" t="s">
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="7">
+        <f>M22</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="14" t="n">
-        <f aca="false">(R18+R23+R26)+2*(R19+R24+R27)</f>
-        <v>1.540366</v>
-      </c>
-      <c r="K8" s="1" t="n">
+      <c r="J8" s="13">
+        <f>(R18+R23+R26)+2*(R19+R24+R27)</f>
+        <v>1.5403659999999999</v>
+      </c>
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="15" t="n">
-        <f aca="false">-SUM(M8,P8,S8,U8)</f>
-        <v>-1.1</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <f aca="false">M22</f>
-        <v>0.56</v>
-      </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="7" t="n">
-        <f aca="false">M23</f>
-        <v>0.14</v>
-      </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="3"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="14">
+        <f>-SUM(M8,P8,S8,U8)</f>
+        <v>-1.0999999999999999</v>
+      </c>
+      <c r="S8" s="7">
+        <f>M22</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="7">
+        <f>M23</f>
+        <v>0.13999999999999996</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H9" s="2"/>
       <c r="I9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="16" t="n">
-        <f aca="false">R21+SUM(R25:R27)</f>
-        <v>0.223744</v>
-      </c>
-      <c r="K9" s="1" t="n">
+      <c r="J9" s="15">
+        <f>R21+SUM(R25:R27)</f>
+        <v>0.22374400000000003</v>
+      </c>
+      <c r="K9">
         <v>8</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="S9" s="15" t="n">
-        <f aca="false">-SUM(N9,R9,T9,V9)</f>
-        <v>-1.1</v>
-      </c>
-      <c r="T9" s="7" t="n">
-        <f aca="false">M22</f>
-        <v>0.56</v>
-      </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="7" t="n">
-        <f aca="false">M23</f>
-        <v>0.14</v>
-      </c>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="3"/>
+      <c r="S9" s="14">
+        <f>-SUM(N9,R9,T9,V9)</f>
+        <v>-1.0999999999999999</v>
+      </c>
+      <c r="T9" s="7">
+        <f>M22</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="7">
+        <f>M23</f>
+        <v>0.13999999999999996</v>
+      </c>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H10" s="2"/>
       <c r="I10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="17" t="n">
-        <f aca="false">J8+J9</f>
-        <v>1.76411</v>
-      </c>
-      <c r="K10" s="1" t="n">
+      <c r="J10" s="16">
+        <f>J8+J9</f>
+        <v>1.7641099999999998</v>
+      </c>
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="T10" s="15" t="n">
-        <f aca="false">-SUM(O10,S10,W10)</f>
+      <c r="T10" s="14">
+        <f>-SUM(O10,S10,W10)</f>
         <v>-0.54</v>
       </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="7" t="n">
-        <f aca="false">M23</f>
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H11" s="3" t="s">
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="7">
+        <f>M23</f>
+        <v>0.13999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="14" t="n">
-        <f aca="false">J8+J5</f>
-        <v>2.510597</v>
-      </c>
-      <c r="K11" s="1" t="n">
+      <c r="J11" s="13">
+        <f>J8+J5</f>
+        <v>2.5105969999999997</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="R11" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="R11" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="15" t="n">
-        <f aca="false">-SUM(Q11,R11,V11)</f>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="14">
+        <f>-SUM(Q11,R11,V11)</f>
         <v>-0.96</v>
       </c>
-      <c r="V11" s="7" t="n">
-        <f aca="false">M22</f>
-        <v>0.56</v>
-      </c>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="3"/>
+      <c r="V11" s="7">
+        <f>M22</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
       <c r="I12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="16" t="n">
-        <f aca="false">J9+J6</f>
+      <c r="J12" s="15">
+        <f>J9+J6</f>
         <v>0.767123</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12">
         <v>11</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="T12" s="8"/>
+      <c r="U12" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="V12" s="15" t="n">
-        <f aca="false">-SUM(S12,U12,W12)</f>
+      <c r="V12" s="14">
+        <f>-SUM(S12,U12,W12)</f>
         <v>-0.96</v>
       </c>
-      <c r="W12" s="7" t="n">
-        <f aca="false">M22</f>
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="3"/>
+      <c r="W12" s="7">
+        <f>M22</f>
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H13" s="2"/>
       <c r="I13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="17" t="n">
-        <f aca="false">J11+J12</f>
-        <v>3.27772</v>
-      </c>
-      <c r="K13" s="1" t="n">
+      <c r="J13" s="16">
+        <f>J11+J12</f>
+        <v>3.2777199999999995</v>
+      </c>
+      <c r="K13">
         <v>12</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="7" t="n">
-        <f aca="false">M21</f>
+      <c r="U13" s="8"/>
+      <c r="V13" s="7">
+        <f>M21</f>
         <v>0.2</v>
       </c>
-      <c r="W13" s="15" t="n">
-        <f aca="false">-SUM(T13,V13)</f>
+      <c r="W13" s="14">
+        <f>-SUM(T13,V13)</f>
         <v>-0.4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H14" s="3" t="s">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="5" t="n">
-        <f aca="false">J8/M22</f>
-        <v>2.75065357142857</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="3"/>
+      <c r="J14" s="5">
+        <f>J8/M22</f>
+        <v>2.7506535714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
       <c r="I15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="10" t="n">
-        <f aca="false">J9/M23</f>
-        <v>1.59817142857143</v>
-      </c>
-      <c r="L15" s="18" t="s">
+      <c r="J15" s="10">
+        <f>J9/M23</f>
+        <v>1.5981714285714292</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="19" t="n">
+      <c r="M15" s="18">
         <v>0.7</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H16" s="2"/>
       <c r="I16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="12" t="n">
-        <f aca="false">J10/M15</f>
-        <v>2.52015714285714</v>
-      </c>
-      <c r="L16" s="19" t="s">
+      <c r="J16" s="12">
+        <f>J10/M15</f>
+        <v>2.5201571428571428</v>
+      </c>
+      <c r="L16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="19" t="n">
+      <c r="M16" s="18">
         <v>5</v>
       </c>
-      <c r="N16" s="0"/>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="21" t="n">
-        <v>0.013593</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H17" s="3" t="s">
+      <c r="R16" s="20">
+        <v>1.3592999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="5" t="n">
-        <f aca="false">J14+M16</f>
-        <v>7.75065357142857</v>
-      </c>
-      <c r="L17" s="19" t="s">
+      <c r="J17" s="5">
+        <f>J14+M16</f>
+        <v>7.7506535714285718</v>
+      </c>
+      <c r="L17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="19" t="n">
+      <c r="M17" s="18">
         <v>0.8</v>
       </c>
-      <c r="N17" s="0"/>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R17" s="21" t="n">
-        <v>0.038061</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="3"/>
+      <c r="R17" s="20">
+        <v>3.8060999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
       <c r="I18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="10" t="n">
-        <f aca="false">J15+M16</f>
-        <v>6.59817142857143</v>
-      </c>
-      <c r="L18" s="19" t="s">
+      <c r="J18" s="10">
+        <f>J15+M16</f>
+        <v>6.5981714285714297</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="19" t="n">
-        <f aca="false">0.2</f>
+      <c r="M18" s="18">
+        <f>0.2</f>
         <v>0.2</v>
       </c>
-      <c r="N18" s="0"/>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="21" t="n">
+      <c r="R18" s="20">
         <v>0.10657</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="3"/>
+    <row r="19" spans="8:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
       <c r="I19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="12" t="n">
-        <f aca="false">J18+J17</f>
-        <v>14.348825</v>
-      </c>
-      <c r="L19" s="19" t="s">
+      <c r="J19" s="12">
+        <f>J18+J17</f>
+        <v>14.348825000000001</v>
+      </c>
+      <c r="L19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="19" t="n">
+      <c r="M19" s="18">
         <v>2</v>
       </c>
-      <c r="N19" s="0"/>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="21" t="n">
-        <v>0.298397</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H20" s="3" t="s">
+      <c r="R19" s="20">
+        <v>0.29839700000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="14" t="n">
-        <f aca="false">(R19+R24+R27)*M22</f>
-        <v>0.36595384</v>
-      </c>
-      <c r="L20" s="19" t="s">
+      <c r="J20" s="13">
+        <f>(R19+R24+R27)*M22</f>
+        <v>0.36595383999999997</v>
+      </c>
+      <c r="L20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="19" t="n">
+      <c r="M20" s="18">
         <v>1</v>
       </c>
-      <c r="N20" s="0"/>
-      <c r="P20" s="20" t="s">
+      <c r="P20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="21" t="n">
-        <v>0.009515</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="3"/>
+      <c r="R20" s="20">
+        <v>9.5149999999999992E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="8:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
       <c r="I21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="16" t="n">
-        <f aca="false">(R21+SUM(R25:R27))*M23</f>
-        <v>0.03132416</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="J21" s="15">
+        <f>(R21+SUM(R25:R27))*M23</f>
+        <v>3.1324159999999997E-2</v>
+      </c>
+      <c r="L21" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="1" t="n">
-        <f aca="false">1/M16</f>
+      <c r="M21">
+        <f>1/M16</f>
         <v>0.2</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="N21" t="s">
         <v>29</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="21" t="n">
-        <v>0.006661</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="3"/>
+      <c r="R21" s="20">
+        <v>6.6610000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="8:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
       <c r="I22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="12" t="n">
-        <f aca="false">J20+J21</f>
-        <v>0.397278</v>
-      </c>
-      <c r="L22" s="18" t="s">
+      <c r="J22" s="12">
+        <f>J20+J21</f>
+        <v>0.39727799999999996</v>
+      </c>
+      <c r="L22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="0" t="n">
-        <f aca="false">M15*M17</f>
-        <v>0.56</v>
-      </c>
-      <c r="N22" s="0" t="s">
+      <c r="M22">
+        <f>M15*M17</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="N22" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="P22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R22" s="21" t="n">
-        <v>0.026643</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H23" s="3" t="s">
+      <c r="R22" s="20">
+        <v>2.6643E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="5" t="n">
-        <f aca="false">M22*(1-J20)</f>
-        <v>0.3550658496</v>
-      </c>
-      <c r="L23" s="18" t="s">
+      <c r="J23" s="5">
+        <f>M22*(1-J20)</f>
+        <v>0.35506584959999998</v>
+      </c>
+      <c r="L23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="M23" s="0" t="n">
-        <f aca="false">M15*(1-M17)</f>
-        <v>0.14</v>
-      </c>
-      <c r="N23" s="0" t="s">
+      <c r="M23">
+        <f>M15*(1-M17)</f>
+        <v>0.13999999999999996</v>
+      </c>
+      <c r="N23" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R23" s="21" t="n">
-        <v>0.074599</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="3"/>
+      <c r="R23" s="20">
+        <v>7.4598999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="8:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
       <c r="I24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="10" t="n">
-        <f aca="false">M23*(1-J21)</f>
-        <v>0.1356146176</v>
-      </c>
-      <c r="P24" s="20" t="s">
+      <c r="J24" s="10">
+        <f>M23*(1-J21)</f>
+        <v>0.13561461759999996</v>
+      </c>
+      <c r="P24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R24" s="21" t="n">
-        <v>0.208878</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="3"/>
+      <c r="R24" s="20">
+        <v>0.20887800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="8:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
       <c r="I25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="12" t="n">
-        <f aca="false">M15*(1-J22)</f>
-        <v>0.4219054</v>
-      </c>
-      <c r="P25" s="20" t="s">
+      <c r="J25" s="12">
+        <f>M15*(1-J22)</f>
+        <v>0.42190539999999999</v>
+      </c>
+      <c r="P25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R25" s="21" t="n">
-        <v>0.01865</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="22"/>
-      <c r="P26" s="20" t="s">
+      <c r="R25" s="20">
+        <v>1.865E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:18" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+      <c r="P26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="Q26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R26" s="21" t="n">
-        <v>0.052219</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H27" s="22"/>
-      <c r="P27" s="20" t="s">
+      <c r="R26" s="20">
+        <v>5.2219000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+      <c r="P27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R27" s="21" t="n">
-        <v>0.146214</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H28" s="22"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="23" t="n">
-        <f aca="false">SUM(R16:R27)</f>
+      <c r="R27" s="20">
+        <v>0.14621400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="1"/>
+      <c r="R28" s="21">
+        <f>SUM(R16:R27)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H23:H25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="16.38"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="3" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="n">
-        <f aca="false">Система_1!J4</f>
+      <c r="B2" s="25">
+        <f>Система_1!J4</f>
         <v>3.5</v>
       </c>
-      <c r="C2" s="28" t="n">
-        <f aca="false">Система_1!J2</f>
-        <v>2.8</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="n">
-        <f aca="false">ABS($B2-$C2)/MAX($B2:$C2)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="C2" s="26">
+        <f>Система_1!J2</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27">
+        <f t="shared" ref="F2:F9" si="0">ABS($B2-$C2)/MAX($B2:$C2)</f>
+        <v>0.19999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31" t="n">
-        <f aca="false">ROUND(Система_1!J7, 4)</f>
-        <v>0.7568</v>
-      </c>
-      <c r="C3" s="32" t="n">
-        <f aca="false">Система_2!J5</f>
-        <v>1.172745</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="29" t="n">
-        <f aca="false">ABS($B3-$C3)/MAX($B3:$C3)</f>
-        <v>0.354676421557969</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="29">
+        <f>ROUND(Система_1!J7, 4)</f>
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="C3" s="30">
+        <f>Система_2!J5</f>
+        <v>1.1727450000000004</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="27">
+        <f t="shared" si="0"/>
+        <v>0.35467642155796886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31" t="n">
-        <f aca="false">ROUND(Система_1!J10, 4)</f>
+      <c r="B4" s="29">
+        <f>ROUND(Система_1!J10, 4)</f>
         <v>1.7641</v>
       </c>
-      <c r="C4" s="32" t="n">
-        <f aca="false">Система_2!J8</f>
-        <v>1.9469</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="29" t="n">
-        <f aca="false">ABS($B4-$C4)/MAX($B4:$C4)</f>
-        <v>0.0938928553084391</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="C4" s="30">
+        <f>Система_2!J8</f>
+        <v>1.9468999999999999</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="27">
+        <f t="shared" si="0"/>
+        <v>9.3892855308438994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31" t="n">
-        <f aca="false">ROUND(Система_1!J13, 4)</f>
-        <v>3.2777</v>
-      </c>
-      <c r="C5" s="32" t="n">
-        <f aca="false">Система_2!J11</f>
-        <v>3.119645</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="29" t="n">
-        <f aca="false">ABS($B5-$C5)/MAX($B5:$C5)</f>
-        <v>0.0482213137260884</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="29">
+        <f>ROUND(Система_1!J13, 4)</f>
+        <v>3.2776999999999998</v>
+      </c>
+      <c r="C5" s="30">
+        <f>Система_2!J11</f>
+        <v>3.1196450000000002</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="27">
+        <f t="shared" si="0"/>
+        <v>4.8221313726088302E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="31" t="n">
-        <f aca="false">ROUND(Система_1!J16, 4)</f>
+      <c r="B6" s="29">
+        <f>ROUND(Система_1!J16, 4)</f>
         <v>2.5202</v>
       </c>
-      <c r="C6" s="32" t="n">
-        <f aca="false">Система_2!J14</f>
-        <v>2.78128571428571</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="29" t="n">
-        <f aca="false">ABS($B6-$C6)/MAX($B6:$C6)</f>
-        <v>0.0938723098258757</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
+      <c r="C6" s="30">
+        <f>Система_2!J14</f>
+        <v>2.7812857142857141</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="27">
+        <f t="shared" si="0"/>
+        <v>9.3872309825876993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="31" t="n">
-        <f aca="false">ROUND(Система_1!J19, 4)</f>
-        <v>14.3488</v>
-      </c>
-      <c r="C7" s="32" t="n">
-        <f aca="false">Система_2!J17</f>
-        <v>7.78128571428571</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="29" t="n">
-        <f aca="false">ABS($B7-$C7)/MAX($B7:$C7)</f>
-        <v>0.457704775710463</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="B7" s="29">
+        <f>ROUND(Система_1!J19, 4)</f>
+        <v>14.348800000000001</v>
+      </c>
+      <c r="C7" s="30">
+        <f>Система_2!J17</f>
+        <v>7.7812857142857146</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.45770477571046259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="31" t="n">
-        <f aca="false">ROUND(Система_1!J22, 4)</f>
-        <v>0.3973</v>
-      </c>
-      <c r="C8" s="32" t="n">
-        <f aca="false">Система_2!J20</f>
-        <v>0.66493</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="29" t="n">
-        <f aca="false">ABS($B8-$C8)/MAX($B8:$C8)</f>
-        <v>0.402493495555923</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
+      <c r="B8" s="29">
+        <f>ROUND(Система_1!J22, 4)</f>
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="C8" s="30">
+        <f>Система_2!J20</f>
+        <v>0.66492999999999991</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.40249349555592312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="34" t="n">
-        <f aca="false">ROUND(Система_1!J25, 4)</f>
+      <c r="B9" s="32">
+        <f>ROUND(Система_1!J25, 4)</f>
         <v>0.4219</v>
       </c>
-      <c r="C9" s="35" t="n">
-        <f aca="false">Система_2!J23</f>
-        <v>0.234549</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="29" t="n">
-        <f aca="false">ABS($B9-$C9)/MAX($B9:$C9)</f>
-        <v>0.444064944299597</v>
+      <c r="C9" s="33">
+        <f>Система_2!J23</f>
+        <v>0.23454900000000004</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44406494429959698</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:E3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00FF00"/>
@@ -3127,9 +3219,9 @@
   <conditionalFormatting sqref="C4:E4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF00FF00"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FFFF0000"/>
@@ -3139,9 +3231,9 @@
   <conditionalFormatting sqref="C5:E5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00FF00"/>
@@ -3151,9 +3243,9 @@
   <conditionalFormatting sqref="C6:E6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF00FF00"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FFFF0000"/>
@@ -3163,9 +3255,9 @@
   <conditionalFormatting sqref="C7:E7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF00FF00"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FFFF0000"/>
@@ -3175,9 +3267,9 @@
   <conditionalFormatting sqref="C8:E8">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF00FF00"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FFFF0000"/>
@@ -3187,664 +3279,691 @@
   <conditionalFormatting sqref="C9:E9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
         <color rgb="FF00FF00"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:X28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="19" style="1" width="15.3"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" customWidth="1"/>
+    <col min="19" max="23" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36" t="n">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34">
         <v>0</v>
       </c>
-      <c r="M1" s="36" t="n">
+      <c r="M1" s="34">
         <v>1</v>
       </c>
-      <c r="N1" s="36" t="n">
+      <c r="N1" s="34">
         <v>2</v>
       </c>
-      <c r="O1" s="36" t="n">
+      <c r="O1" s="34">
         <v>3</v>
       </c>
-      <c r="P1" s="36" t="n">
+      <c r="P1" s="34">
         <v>4</v>
       </c>
-      <c r="Q1" s="36" t="n">
+      <c r="Q1" s="34">
         <v>5</v>
       </c>
-      <c r="R1" s="36" t="n">
+      <c r="R1" s="34">
         <v>6</v>
       </c>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="n">
+      <c r="B2" s="18">
         <v>0.7</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="37" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="35">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <f aca="false">B2*B3</f>
+      <c r="J2" s="5">
+        <f>B2*B3</f>
         <v>3.5</v>
       </c>
-      <c r="K2" s="36" t="n">
+      <c r="K2" s="34">
         <v>0</v>
       </c>
-      <c r="L2" s="38" t="n">
+      <c r="L2" s="36">
         <v>-0.7</v>
       </c>
-      <c r="M2" s="39" t="n">
-        <f aca="false">B4*B2</f>
-        <v>0.28</v>
-      </c>
-      <c r="N2" s="40" t="n">
-        <f aca="false">(1-B4)*B2</f>
-        <v>0.42</v>
-      </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="M2" s="37">
+        <f>A15</f>
+        <v>0.315</v>
+      </c>
+      <c r="N2" s="38">
+        <f>A16</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="O2" s="38"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+    </row>
+    <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B3" s="18">
         <v>5</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="37" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="F3" s="35">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="36" t="n">
+      <c r="K3" s="34">
         <v>1</v>
       </c>
-      <c r="L3" s="39" t="n">
-        <f aca="false">O7</f>
-        <v>0.03048399691022</v>
-      </c>
-      <c r="M3" s="38" t="n">
-        <v>-0.6594</v>
-      </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40" t="n">
-        <f aca="false">B2*(1-B9)</f>
-        <v>0.628870673876154</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="L3" s="37">
+        <f>B9</f>
+        <v>0.10672316599754009</v>
+      </c>
+      <c r="M3" s="36">
+        <v>-0.65939999999999999</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38">
+        <f>B2</f>
+        <v>0.7</v>
+      </c>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">2/(1+1.5*1.5)</f>
-        <v>0.615384615384615</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="C4">
+        <f>2/(1+1.5*1.5)</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="37" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="F4" s="35">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="36" t="n">
+      <c r="K4" s="34">
         <v>2</v>
       </c>
-      <c r="L4" s="40" t="n">
-        <f aca="false">P8</f>
-        <v>0.169251143077842</v>
-      </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="38" t="n">
-        <v>-0.4744</v>
-      </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40" t="n">
-        <f aca="false">B2*(1-B10)</f>
-        <v>0.305080666151703</v>
-      </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="L4" s="38">
+        <f>B10</f>
+        <v>0.70199316693120506</v>
+      </c>
+      <c r="M4" s="37"/>
+      <c r="N4" s="36">
+        <v>-0.47439999999999999</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38">
+        <f>B2</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="19" t="n">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="37" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="35">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="14" t="n">
-        <f aca="false">(1-J20)*J2</f>
-        <v>1.172745</v>
-      </c>
-      <c r="K5" s="36" t="n">
+      <c r="J5" s="13">
+        <f>(1-J20)*J2</f>
+        <v>1.1727450000000004</v>
+      </c>
+      <c r="K5" s="34">
         <v>3</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40" t="n">
-        <f aca="false">O7</f>
-        <v>0.03048399691022</v>
-      </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="38" t="n">
-        <v>-0.6594</v>
-      </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40" t="n">
-        <f aca="false">O3</f>
-        <v>0.628870673876154</v>
-      </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="L5" s="38"/>
+      <c r="M5" s="38">
+        <f>O7</f>
+        <v>4.8025424698893038E-2</v>
+      </c>
+      <c r="N5" s="37">
+        <f>P7</f>
+        <v>5.8697741298647049E-2</v>
+      </c>
+      <c r="O5" s="36">
+        <v>-0.65939999999999999</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38">
+        <f>O3</f>
+        <v>0.7</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6">
         <v>1.5</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="37" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="F6" s="35">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="36" t="n">
+      <c r="J6" s="15"/>
+      <c r="K6" s="34">
         <v>4</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40" t="n">
-        <f aca="false">P8</f>
-        <v>0.169251143077842</v>
-      </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="38" t="n">
-        <v>-0.4744</v>
-      </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39" t="n">
-        <f aca="false">P4</f>
-        <v>0.305080666151703</v>
-      </c>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="38">
+        <f>O8</f>
+        <v>0.31589692511904227</v>
+      </c>
+      <c r="N6" s="38">
+        <f>P8</f>
+        <v>0.38609624181216279</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="36">
+        <v>-0.47439999999999999</v>
+      </c>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37">
+        <f>P4</f>
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+    </row>
+    <row r="7" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="19" t="n">
-        <f aca="false">(1+SQRT((1-B4)/(2*B4)*(B6^2-1)))*B3</f>
-        <v>9.84122918275927</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="18">
+        <f>(1+SQRT((1-B4)/(2*B4)*(B6^2-1)))*B3</f>
+        <v>9.3700368673756316</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="37" t="n">
-        <v>0.9479</v>
-      </c>
-      <c r="H7" s="3"/>
+      <c r="F7" s="35">
+        <v>0.94789999999999996</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="36" t="n">
+      <c r="K7" s="34">
         <v>5</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40" t="n">
-        <f aca="false">B9*(1-B2)</f>
-        <v>0.03048399691022</v>
-      </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="38" t="n">
-        <v>-0.0305</v>
-      </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38">
+        <f>A17</f>
+        <v>4.8025424698893038E-2</v>
+      </c>
+      <c r="P7" s="37">
+        <f>A18</f>
+        <v>5.8697741298647049E-2</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>-3.0499999999999999E-2</v>
+      </c>
+      <c r="R7" s="38"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <f aca="false">(1-SQRT((B4)/(2*(1-B4))*(B6*B6-1)))*B3</f>
-        <v>1.77251387816049</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="B8">
+        <f>(1-SQRT((B4)/(2*(1-B4))*(B6*B6-1)))*B3</f>
+        <v>1.4245152903290288</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="37" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="35">
+        <v>2E-3</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="14" t="n">
-        <f aca="false">SUM(F5:F6)+2*SUM(F7:F8)</f>
-        <v>1.9469</v>
-      </c>
-      <c r="K8" s="36" t="n">
+      <c r="J8" s="13">
+        <f>SUM(F5:F6)+2*SUM(F7:F8)</f>
+        <v>1.9468999999999999</v>
+      </c>
+      <c r="K8" s="34">
         <v>6</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="39" t="n">
-        <f aca="false">B10*(1-B2)</f>
-        <v>0.169251143077842</v>
-      </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="38" t="n">
-        <v>-0.1693</v>
-      </c>
-      <c r="S8" s="42"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="L8" s="38"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38">
+        <f>A19</f>
+        <v>0.31589692511904227</v>
+      </c>
+      <c r="P8" s="37">
+        <f>A20</f>
+        <v>0.38609624181216279</v>
+      </c>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="36">
+        <v>-0.16930000000000001</v>
+      </c>
+      <c r="S8" s="40"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+    </row>
+    <row r="9" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <f aca="false">1/B7</f>
-        <v>0.101613323034066</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="37"/>
-      <c r="H9" s="3"/>
+      <c r="B9">
+        <f>1/B7</f>
+        <v>0.10672316599754009</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="35"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="J9" s="15"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="39"/>
+    </row>
+    <row r="10" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <f aca="false">1/B8</f>
-        <v>0.564170476926138</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="37"/>
-      <c r="H10" s="3"/>
+      <c r="B10">
+        <f>1/B8</f>
+        <v>0.70199316693120506</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="35"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D11" s="20"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="37"/>
-      <c r="H11" s="3" t="s">
+      <c r="J10" s="16"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="19"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="14" t="n">
-        <f aca="false">J8+J5</f>
-        <v>3.119645</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="20"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="37"/>
-      <c r="H12" s="3"/>
+      <c r="J11" s="13">
+        <f>J8+J5</f>
+        <v>3.1196450000000002</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="39"/>
+    </row>
+    <row r="12" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D12" s="19"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="35"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="20"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="37"/>
-      <c r="H13" s="3"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+    </row>
+    <row r="13" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D13" s="19"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="35"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F14" s="23" t="n">
-        <f aca="false">SUM(F2:F13)</f>
+      <c r="J13" s="16"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="21">
+        <f>SUM(F2:F13)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="5" t="n">
-        <f aca="false">J8/B2</f>
-        <v>2.78128571428571</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="3"/>
+      <c r="J14" s="5">
+        <f>J8/B2</f>
+        <v>2.7812857142857141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>B2*B4</f>
+        <v>0.315</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="3"/>
+    <row r="16" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>B2*(1-B4)</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H17" s="3" t="s">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>B9*B4</f>
+        <v>4.8025424698893038E-2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="5" t="n">
-        <f aca="false">J14+B4*B7+(1-B4)*B8</f>
-        <v>7.78128571428571</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="3"/>
+      <c r="J17" s="5">
+        <f>J14+B4*B7+(1-B4)*B8</f>
+        <v>7.7812857142857146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>B9*(1-B4)</f>
+        <v>5.8697741298647049E-2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="3"/>
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>B10*B4</f>
+        <v>0.31589692511904227</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H20" s="3" t="s">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>B10*(1-B4)</f>
+        <v>0.38609624181216279</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="14" t="n">
-        <f aca="false">SUM(F7,F8)*B2</f>
-        <v>0.66493</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="3"/>
+      <c r="J20" s="13">
+        <f>SUM(F7,F8)*B2</f>
+        <v>0.66492999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="3"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H23" s="3" t="s">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="5" t="n">
-        <f aca="false">B2*(1-J20)</f>
-        <v>0.234549</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="3"/>
+      <c r="J23" s="5">
+        <f>B2*(1-J20)</f>
+        <v>0.23454900000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
       <c r="I24" s="9"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="3"/>
+    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H28" s="22"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H23:H25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/lab2/sheet.xlsx
+++ b/lab2/sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\simulation-labs\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD48665-6866-491A-9533-A37616AEDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D7FE0-2600-4033-86D6-881B59FCD191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Система_1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <numFmt numFmtId="164" formatCode="##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -299,8 +299,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +350,12 @@
         <bgColor rgb="FF757575"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -569,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,9 +651,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,6 +671,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -765,7 +794,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="ru-RU" sz="1800" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1027,31 +1056,31 @@
             <c:numRef>
               <c:f>Сравнение!$C$2:$C$9</c:f>
               <c:numCache>
-                <c:formatCode>##0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>2.8000000000000003</c:v>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1727450000000004</c:v>
+                  <c:v>0.96530000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9468999999999999</c:v>
+                  <c:v>1.6152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1196450000000002</c:v>
+                  <c:v>2.5804999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7812857142857141</c:v>
+                  <c:v>2.3074285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7812857142857146</c:v>
+                  <c:v>7.3074285714285709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66492999999999991</c:v>
+                  <c:v>0.50686999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23454900000000004</c:v>
+                  <c:v>0.34519100000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,701 +1253,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1800" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-              </a:rPr>
-              <a:t>Система 1, Система 2 (q=0.10), Система 2 (q=0.15) and Система 2 (q=0.05)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Сравнение!$B$1:$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Система 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4285F4"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Сравнение!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Нагрузка</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Загрузка</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Длина очереди</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Число заявок</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Время ожидания</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Время пребывания</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Вероятность потери</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Производительность</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Сравнение!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>##0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75680000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7641</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2776999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.348800000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39729999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E52-4622-AB27-1305FA29F0B0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Сравнение!$E$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="EA4335"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Сравнение!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Нагрузка</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Загрузка</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Длина очереди</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Число заявок</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Время ожидания</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Время пребывания</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Вероятность потери</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Производительность</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Сравнение!$E$2:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>##0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E52-4622-AB27-1305FA29F0B0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Сравнение!$C$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Система 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FBBC04"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Сравнение!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Нагрузка</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Загрузка</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Длина очереди</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Число заявок</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Время ожидания</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Время пребывания</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Вероятность потери</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Производительность</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Сравнение!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>##0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1727450000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9468999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1196450000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7812857142857141</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7812857142857146</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66492999999999991</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23454900000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5E52-4622-AB27-1305FA29F0B0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Сравнение!$D$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="34A853"/>
-            </a:solidFill>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:ea typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Сравнение!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Нагрузка</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Загрузка</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Длина очереди</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Число заявок</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Время ожидания</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Время пребывания</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Вероятность потери</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Производительность</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Сравнение!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>##0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5E52-4622-AB27-1305FA29F0B0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="76731481"/>
-        <c:axId val="34004165"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="76731481"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8B8B8B"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34004165"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="34004165"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8B8B8B"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:ea typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="76731481"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1932,7 +1266,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>355680</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>65640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1952,42 +1286,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>379800</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2175,7 +1473,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2884,7 +2182,7 @@
       <c r="I22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="41">
         <f>J20+J21</f>
         <v>0.39727799999999996</v>
       </c>
@@ -3031,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3051,7 +2349,7 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -3060,17 +2358,17 @@
         <v>3.5</v>
       </c>
       <c r="C2" s="26">
-        <f>Система_1!J2</f>
-        <v>2.8000000000000003</v>
+        <f>Система_2!J2</f>
+        <v>3.5</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" s="27">
         <f t="shared" ref="F2:F9" si="0">ABS($B2-$C2)/MAX($B2:$C2)</f>
-        <v>0.19999999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
@@ -3078,18 +2376,18 @@
         <f>ROUND(Система_1!J7, 4)</f>
         <v>0.75680000000000003</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="42">
         <f>Система_2!J5</f>
-        <v>1.1727450000000004</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="27">
         <f t="shared" si="0"/>
-        <v>0.35467642155796886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>0.2159950274526054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
@@ -3097,18 +2395,18 @@
         <f>ROUND(Система_1!J10, 4)</f>
         <v>1.7641</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="42">
         <f>Система_2!J8</f>
-        <v>1.9468999999999999</v>
+        <v>1.6152</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="27">
         <f t="shared" si="0"/>
-        <v>9.3892855308438994E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>8.4405645938438884E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>8</v>
       </c>
@@ -3116,18 +2414,18 @@
         <f>ROUND(Система_1!J13, 4)</f>
         <v>3.2776999999999998</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="26">
         <f>Система_2!J11</f>
-        <v>3.1196450000000002</v>
+        <v>2.5804999999999998</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="27">
         <f t="shared" si="0"/>
-        <v>4.8221313726088302E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>0.21271013210482964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
@@ -3135,18 +2433,18 @@
         <f>ROUND(Система_1!J16, 4)</f>
         <v>2.5202</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="42">
         <f>Система_2!J14</f>
-        <v>2.7812857142857141</v>
+        <v>2.3074285714285714</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="27">
         <f t="shared" si="0"/>
-        <v>9.3872309825876993E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>8.4426406067545673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>16</v>
       </c>
@@ -3154,57 +2452,57 @@
         <f>ROUND(Система_1!J19, 4)</f>
         <v>14.348800000000001</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="42">
         <f>Система_2!J17</f>
-        <v>7.7812857142857146</v>
+        <v>7.3074285714285709</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="27">
         <f t="shared" si="0"/>
-        <v>0.45770477571046259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>0.49072894099655923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="43">
         <f>ROUND(Система_1!J22, 4)</f>
         <v>0.39729999999999999</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="26">
         <f>Система_2!J20</f>
-        <v>0.66492999999999991</v>
+        <v>0.50686999999999993</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
       <c r="F8" s="27">
         <f t="shared" si="0"/>
-        <v>0.40249349555592312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>0.21616982658275288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="44">
         <f>ROUND(Система_1!J25, 4)</f>
         <v>0.4219</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="26">
         <f>Система_2!J23</f>
-        <v>0.23454900000000004</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+        <v>0.34519100000000003</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="27">
         <f t="shared" si="0"/>
-        <v>0.44406494429959698</v>
+        <v>0.18181796634273517</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:E3">
+  <conditionalFormatting sqref="D3:E3">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3216,7 +2514,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:E4">
+  <conditionalFormatting sqref="D4:E4">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3228,7 +2526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:E5">
+  <conditionalFormatting sqref="D5:E5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3240,7 +2538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
+  <conditionalFormatting sqref="D6:E6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3252,7 +2550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:E7">
+  <conditionalFormatting sqref="D7:E7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3264,7 +2562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:E8">
+  <conditionalFormatting sqref="D8:E8">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3276,7 +2574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:E9">
+  <conditionalFormatting sqref="D9:E9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3298,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3326,26 +2624,26 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33">
         <v>0</v>
       </c>
-      <c r="M1" s="34">
+      <c r="M1" s="33">
         <v>1</v>
       </c>
-      <c r="N1" s="34">
+      <c r="N1" s="33">
         <v>2</v>
       </c>
-      <c r="O1" s="34">
+      <c r="O1" s="33">
         <v>3</v>
       </c>
-      <c r="P1" s="34">
+      <c r="P1" s="33">
         <v>4</v>
       </c>
-      <c r="Q1" s="34">
+      <c r="Q1" s="33">
         <v>5</v>
       </c>
-      <c r="R1" s="34">
+      <c r="R1" s="33">
         <v>6</v>
       </c>
     </row>
@@ -3362,8 +2660,8 @@
       <c r="E2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="35">
-        <v>2.0000000000000001E-4</v>
+      <c r="F2" s="34">
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
@@ -3375,29 +2673,29 @@
         <f>B2*B3</f>
         <v>3.5</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="33">
         <v>0</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="35">
         <v>-0.7</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="36">
         <f>A15</f>
-        <v>0.315</v>
-      </c>
-      <c r="N2" s="38">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="N2" s="37">
         <f>A16</f>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
+        <v>0.42</v>
+      </c>
+      <c r="O2" s="37"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
@@ -3412,42 +2710,42 @@
       <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="35">
-        <v>2.2000000000000001E-3</v>
+      <c r="F3" s="34">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="34">
+      <c r="K3" s="33">
         <v>1</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="36">
         <f>B9</f>
-        <v>0.10672316599754009</v>
-      </c>
-      <c r="M3" s="36">
-        <v>-0.65939999999999999</v>
-      </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38">
+        <v>0.10161332303406649</v>
+      </c>
+      <c r="M3" s="35">
+        <v>-0.80159999999999998</v>
+      </c>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37">
         <f>B2</f>
         <v>0.7</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="18">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
         <f>2/(1+1.5*1.5)</f>
@@ -3459,35 +2757,35 @@
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="35">
-        <v>5.9999999999999995E-4</v>
+      <c r="F4" s="34">
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="11"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="34">
+      <c r="K4" s="33">
         <v>2</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="37">
         <f>B10</f>
-        <v>0.70199316693120506</v>
-      </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="36">
-        <v>-0.47439999999999999</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="38">
+        <v>0.56417047692613831</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="35">
+        <v>-1.2642</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="37">
         <f>B2</f>
         <v>0.7</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
@@ -3502,8 +2800,8 @@
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="35">
-        <v>4.5999999999999999E-2</v>
+      <c r="F5" s="34">
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>5</v>
@@ -3512,35 +2810,35 @@
         <v>2</v>
       </c>
       <c r="J5" s="13">
-        <f>(1-J20)*J2</f>
-        <v>1.1727450000000004</v>
-      </c>
-      <c r="K5" s="34">
+        <f>1-F2</f>
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="K5" s="33">
         <v>3</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37">
         <f>O7</f>
-        <v>4.8025424698893038E-2</v>
-      </c>
-      <c r="N5" s="37">
+        <v>4.0645329213626596E-2</v>
+      </c>
+      <c r="N5" s="36">
         <f>P7</f>
-        <v>5.8697741298647049E-2</v>
-      </c>
-      <c r="O5" s="36">
-        <v>-0.65939999999999999</v>
-      </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38">
+        <v>6.0967993820439895E-2</v>
+      </c>
+      <c r="O5" s="35">
+        <v>-0.80159999999999998</v>
+      </c>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37">
         <f>O3</f>
         <v>0.7</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3555,38 +2853,38 @@
       <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="35">
-        <v>1.1000000000000001E-3</v>
+      <c r="F6" s="40">
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="9"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="34">
+      <c r="K6" s="33">
         <v>4</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38">
+      <c r="L6" s="36"/>
+      <c r="M6" s="37">
         <f>O8</f>
-        <v>0.31589692511904227</v>
-      </c>
-      <c r="N6" s="38">
+        <v>0.22566819077045533</v>
+      </c>
+      <c r="N6" s="37">
         <f>P8</f>
-        <v>0.38609624181216279</v>
-      </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="36">
-        <v>-0.47439999999999999</v>
-      </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37">
+        <v>0.33850228615568295</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="35">
+        <v>-1.2642</v>
+      </c>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36">
         <f>P4</f>
         <v>0.7</v>
       </c>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
     </row>
     <row r="7" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
@@ -3594,7 +2892,7 @@
       </c>
       <c r="B7" s="18">
         <f>(1+SQRT((1-B4)/(2*B4)*(B6^2-1)))*B3</f>
-        <v>9.3700368673756316</v>
+        <v>9.8412291827592711</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>60</v>
@@ -3602,35 +2900,35 @@
       <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="35">
-        <v>0.94789999999999996</v>
+      <c r="F7" s="34">
+        <v>0.63039999999999996</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <v>5</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37">
         <f>A17</f>
-        <v>4.8025424698893038E-2</v>
-      </c>
-      <c r="P7" s="37">
+        <v>4.0645329213626596E-2</v>
+      </c>
+      <c r="P7" s="36">
         <f>A18</f>
-        <v>5.8697741298647049E-2</v>
-      </c>
-      <c r="Q7" s="36">
-        <v>-3.0499999999999999E-2</v>
-      </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
+        <v>6.0967993820439895E-2</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>-0.1016</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3638,7 +2936,7 @@
       </c>
       <c r="B8">
         <f>(1-SQRT((B4)/(2*(1-B4))*(B6*B6-1)))*B3</f>
-        <v>1.4245152903290288</v>
+        <v>1.7725138781604854</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>62</v>
@@ -3646,8 +2944,8 @@
       <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="35">
-        <v>2E-3</v>
+      <c r="F8" s="40">
+        <v>9.3700000000000006E-2</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>7</v>
@@ -3657,31 +2955,31 @@
       </c>
       <c r="J8" s="13">
         <f>SUM(F5:F6)+2*SUM(F7:F8)</f>
-        <v>1.9468999999999999</v>
-      </c>
-      <c r="K8" s="34">
+        <v>1.6152</v>
+      </c>
+      <c r="K8" s="33">
         <v>6</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38">
+      <c r="L8" s="37"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37">
         <f>A19</f>
-        <v>0.31589692511904227</v>
-      </c>
-      <c r="P8" s="37">
+        <v>0.22566819077045533</v>
+      </c>
+      <c r="P8" s="36">
         <f>A20</f>
-        <v>0.38609624181216279</v>
-      </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="36">
-        <v>-0.16930000000000001</v>
-      </c>
-      <c r="S8" s="40"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
+        <v>0.33850228615568295</v>
+      </c>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="35">
+        <v>-0.56420000000000003</v>
+      </c>
+      <c r="S8" s="39"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
     </row>
     <row r="9" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3689,26 +2987,26 @@
       </c>
       <c r="B9">
         <f>1/B7</f>
-        <v>0.10672316599754009</v>
+        <v>0.10161332303406649</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="35"/>
+      <c r="F9" s="34"/>
       <c r="H9" s="2"/>
       <c r="I9" s="9"/>
       <c r="J9" s="15"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="39"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="38"/>
     </row>
     <row r="10" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3716,31 +3014,31 @@
       </c>
       <c r="B10">
         <f>1/B8</f>
-        <v>0.70199316693120506</v>
+        <v>0.56417047692613831</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="34"/>
       <c r="H10" s="2"/>
       <c r="I10" s="11"/>
       <c r="J10" s="16"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="40"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="19"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="35"/>
+      <c r="F11" s="34"/>
       <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
@@ -3749,65 +3047,65 @@
       </c>
       <c r="J11" s="13">
         <f>J8+J5</f>
-        <v>3.1196450000000002</v>
-      </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="39"/>
+        <v>2.5804999999999998</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="38"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="19"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="35"/>
+      <c r="F12" s="34"/>
       <c r="H12" s="2"/>
       <c r="I12" s="9"/>
       <c r="J12" s="15"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D13" s="19"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="35"/>
+      <c r="F13" s="34"/>
       <c r="H13" s="2"/>
       <c r="I13" s="11"/>
       <c r="J13" s="16"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F14" s="21">
         <f>SUM(F2:F13)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>9</v>
@@ -3817,13 +3115,13 @@
       </c>
       <c r="J14" s="5">
         <f>J8/B2</f>
-        <v>2.7812857142857141</v>
+        <v>2.3074285714285714</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>B2*B4</f>
-        <v>0.315</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -3835,7 +3133,7 @@
     <row r="16" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>B2*(1-B4)</f>
-        <v>0.38500000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
@@ -3847,7 +3145,7 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>B9*B4</f>
-        <v>4.8025424698893038E-2</v>
+        <v>4.0645329213626596E-2</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -3860,13 +3158,13 @@
       </c>
       <c r="J17" s="5">
         <f>J14+B4*B7+(1-B4)*B8</f>
-        <v>7.7812857142857146</v>
+        <v>7.3074285714285709</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>B9*(1-B4)</f>
-        <v>5.8697741298647049E-2</v>
+        <v>6.0967993820439895E-2</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -3878,7 +3176,7 @@
     <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>B10*B4</f>
-        <v>0.31589692511904227</v>
+        <v>0.22566819077045533</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -3890,7 +3188,7 @@
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>B10*(1-B4)</f>
-        <v>0.38609624181216279</v>
+        <v>0.33850228615568295</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -3902,8 +3200,8 @@
         <v>2</v>
       </c>
       <c r="J20" s="13">
-        <f>SUM(F7,F8)*B2</f>
-        <v>0.66492999999999991</v>
+        <f>(F7+F8)*B2</f>
+        <v>0.50686999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
@@ -3925,7 +3223,7 @@
       </c>
       <c r="J23" s="5">
         <f>B2*(1-J20)</f>
-        <v>0.23454900000000004</v>
+        <v>0.34519100000000003</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
@@ -3961,6 +3259,7 @@
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
